--- a/output_folder/output.xlsx
+++ b/output_folder/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW54"/>
+  <dimension ref="A1:BX54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,14 +641,14 @@
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
+          <t>ProductAttributeSet</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
           <t>AdditionalAttribute1</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>ProductAttributeSet</t>
-        </is>
-      </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>AdditionalAttribute2</t>
@@ -766,45 +766,50 @@
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
           <t>ShortDescription</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Sellable</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>PickZones</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>AlwaysShowQuantity</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>WarrantySetupName</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>InternalNote</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>ProductionBOM</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>MakeToOrderBom</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>QuantityToProduce</t>
         </is>
@@ -960,12 +965,12 @@
       </c>
       <c r="AP2" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr"/>
@@ -1004,28 +1009,29 @@
         </is>
       </c>
       <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr">
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ2" t="inlineStr"/>
-      <c r="BR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
       <c r="BT2" t="inlineStr"/>
-      <c r="BU2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW2" t="n">
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1179,12 +1185,12 @@
       </c>
       <c r="AP3" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr"/>
@@ -1223,28 +1229,29 @@
         </is>
       </c>
       <c r="BO3" t="inlineStr"/>
-      <c r="BP3" t="inlineStr">
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ3" t="inlineStr"/>
-      <c r="BR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
       <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU3" t="inlineStr"/>
       <c r="BV3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW3" t="n">
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1398,12 +1405,12 @@
       </c>
       <c r="AP4" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr"/>
@@ -1442,28 +1449,29 @@
         </is>
       </c>
       <c r="BO4" t="inlineStr"/>
-      <c r="BP4" t="inlineStr">
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ4" t="inlineStr"/>
-      <c r="BR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
       <c r="BT4" t="inlineStr"/>
-      <c r="BU4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW4" t="n">
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1617,12 +1625,12 @@
       </c>
       <c r="AP5" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr"/>
@@ -1661,28 +1669,29 @@
         </is>
       </c>
       <c r="BO5" t="inlineStr"/>
-      <c r="BP5" t="inlineStr">
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ5" t="inlineStr"/>
-      <c r="BR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
       <c r="BT5" t="inlineStr"/>
-      <c r="BU5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW5" t="n">
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1836,12 +1845,12 @@
       </c>
       <c r="AP6" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr"/>
@@ -1880,28 +1889,29 @@
         </is>
       </c>
       <c r="BO6" t="inlineStr"/>
-      <c r="BP6" t="inlineStr">
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ6" t="inlineStr"/>
-      <c r="BR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
       <c r="BT6" t="inlineStr"/>
-      <c r="BU6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW6" t="n">
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2055,12 +2065,12 @@
       </c>
       <c r="AP7" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr"/>
@@ -2099,28 +2109,29 @@
         </is>
       </c>
       <c r="BO7" t="inlineStr"/>
-      <c r="BP7" t="inlineStr">
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ7" t="inlineStr"/>
-      <c r="BR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
       <c r="BT7" t="inlineStr"/>
-      <c r="BU7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW7" t="n">
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2274,12 +2285,12 @@
       </c>
       <c r="AP8" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr"/>
@@ -2318,28 +2329,29 @@
         </is>
       </c>
       <c r="BO8" t="inlineStr"/>
-      <c r="BP8" t="inlineStr">
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ8" t="inlineStr"/>
-      <c r="BR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
       <c r="BT8" t="inlineStr"/>
-      <c r="BU8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW8" t="n">
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2493,12 +2505,12 @@
       </c>
       <c r="AP9" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr"/>
@@ -2537,28 +2549,29 @@
         </is>
       </c>
       <c r="BO9" t="inlineStr"/>
-      <c r="BP9" t="inlineStr">
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ9" t="inlineStr"/>
-      <c r="BR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
       <c r="BT9" t="inlineStr"/>
-      <c r="BU9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU9" t="inlineStr"/>
       <c r="BV9" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW9" t="n">
+      <c r="BW9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2712,12 +2725,12 @@
       </c>
       <c r="AP10" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr"/>
@@ -2756,28 +2769,29 @@
         </is>
       </c>
       <c r="BO10" t="inlineStr"/>
-      <c r="BP10" t="inlineStr">
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ10" t="inlineStr"/>
-      <c r="BR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
       <c r="BT10" t="inlineStr"/>
-      <c r="BU10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW10" t="n">
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2931,12 +2945,12 @@
       </c>
       <c r="AP11" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr"/>
@@ -2975,28 +2989,29 @@
         </is>
       </c>
       <c r="BO11" t="inlineStr"/>
-      <c r="BP11" t="inlineStr">
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ11" t="inlineStr"/>
-      <c r="BR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="n">
+        <v>0</v>
+      </c>
       <c r="BT11" t="inlineStr"/>
-      <c r="BU11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU11" t="inlineStr"/>
       <c r="BV11" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW11" t="n">
+      <c r="BW11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3150,12 +3165,12 @@
       </c>
       <c r="AP12" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr"/>
@@ -3194,28 +3209,29 @@
         </is>
       </c>
       <c r="BO12" t="inlineStr"/>
-      <c r="BP12" t="inlineStr">
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ12" t="inlineStr"/>
-      <c r="BR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="n">
+        <v>0</v>
+      </c>
       <c r="BT12" t="inlineStr"/>
-      <c r="BU12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU12" t="inlineStr"/>
       <c r="BV12" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW12" t="n">
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,12 +3385,12 @@
       </c>
       <c r="AP13" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr"/>
@@ -3413,28 +3429,29 @@
         </is>
       </c>
       <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="inlineStr">
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ13" t="inlineStr"/>
-      <c r="BR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
       <c r="BT13" t="inlineStr"/>
-      <c r="BU13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU13" t="inlineStr"/>
       <c r="BV13" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW13" t="n">
+      <c r="BW13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3588,12 +3605,12 @@
       </c>
       <c r="AP14" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr"/>
@@ -3632,28 +3649,29 @@
         </is>
       </c>
       <c r="BO14" t="inlineStr"/>
-      <c r="BP14" t="inlineStr">
+      <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ14" t="inlineStr"/>
-      <c r="BR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
       <c r="BT14" t="inlineStr"/>
-      <c r="BU14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU14" t="inlineStr"/>
       <c r="BV14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW14" t="n">
+      <c r="BW14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3807,12 +3825,12 @@
       </c>
       <c r="AP15" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr"/>
@@ -3851,28 +3869,29 @@
         </is>
       </c>
       <c r="BO15" t="inlineStr"/>
-      <c r="BP15" t="inlineStr">
+      <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ15" t="inlineStr"/>
-      <c r="BR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="n">
+        <v>0</v>
+      </c>
       <c r="BT15" t="inlineStr"/>
-      <c r="BU15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU15" t="inlineStr"/>
       <c r="BV15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW15" t="n">
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4026,12 +4045,12 @@
       </c>
       <c r="AP16" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr"/>
@@ -4070,28 +4089,29 @@
         </is>
       </c>
       <c r="BO16" t="inlineStr"/>
-      <c r="BP16" t="inlineStr">
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ16" t="inlineStr"/>
-      <c r="BR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="n">
+        <v>0</v>
+      </c>
       <c r="BT16" t="inlineStr"/>
-      <c r="BU16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU16" t="inlineStr"/>
       <c r="BV16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW16" t="n">
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4245,12 +4265,12 @@
       </c>
       <c r="AP17" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr"/>
@@ -4289,28 +4309,29 @@
         </is>
       </c>
       <c r="BO17" t="inlineStr"/>
-      <c r="BP17" t="inlineStr">
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ17" t="inlineStr"/>
-      <c r="BR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
+      <c r="BS17" t="n">
+        <v>0</v>
+      </c>
       <c r="BT17" t="inlineStr"/>
-      <c r="BU17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU17" t="inlineStr"/>
       <c r="BV17" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW17" t="n">
+      <c r="BW17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4464,12 +4485,12 @@
       </c>
       <c r="AP18" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr"/>
@@ -4508,28 +4529,29 @@
         </is>
       </c>
       <c r="BO18" t="inlineStr"/>
-      <c r="BP18" t="inlineStr">
+      <c r="BP18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ18" t="inlineStr"/>
-      <c r="BR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
+      <c r="BS18" t="n">
+        <v>0</v>
+      </c>
       <c r="BT18" t="inlineStr"/>
-      <c r="BU18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU18" t="inlineStr"/>
       <c r="BV18" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW18" t="n">
+      <c r="BW18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,12 +4705,12 @@
       </c>
       <c r="AP19" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ19" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr"/>
@@ -4727,28 +4749,29 @@
         </is>
       </c>
       <c r="BO19" t="inlineStr"/>
-      <c r="BP19" t="inlineStr">
+      <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ19" t="inlineStr"/>
-      <c r="BR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="n">
+        <v>0</v>
+      </c>
       <c r="BT19" t="inlineStr"/>
-      <c r="BU19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU19" t="inlineStr"/>
       <c r="BV19" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW19" t="n">
+      <c r="BW19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4902,12 +4925,12 @@
       </c>
       <c r="AP20" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ20" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr"/>
@@ -4946,28 +4969,29 @@
         </is>
       </c>
       <c r="BO20" t="inlineStr"/>
-      <c r="BP20" t="inlineStr">
+      <c r="BP20" t="inlineStr"/>
+      <c r="BQ20" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ20" t="inlineStr"/>
-      <c r="BR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
       <c r="BT20" t="inlineStr"/>
-      <c r="BU20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU20" t="inlineStr"/>
       <c r="BV20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW20" t="n">
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,12 +5145,12 @@
       </c>
       <c r="AP21" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ21" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr"/>
@@ -5165,28 +5189,29 @@
         </is>
       </c>
       <c r="BO21" t="inlineStr"/>
-      <c r="BP21" t="inlineStr">
+      <c r="BP21" t="inlineStr"/>
+      <c r="BQ21" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ21" t="inlineStr"/>
-      <c r="BR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
+      <c r="BS21" t="n">
+        <v>0</v>
+      </c>
       <c r="BT21" t="inlineStr"/>
-      <c r="BU21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU21" t="inlineStr"/>
       <c r="BV21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW21" t="n">
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,12 +5365,12 @@
       </c>
       <c r="AP22" t="inlineStr">
         <is>
+          <t>Product Set Outdoor</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
           <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="AQ22" t="inlineStr">
-        <is>
-          <t>Product Set Outdoor</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr"/>
@@ -5384,28 +5409,29 @@
         </is>
       </c>
       <c r="BO22" t="inlineStr"/>
-      <c r="BP22" t="inlineStr">
+      <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ22" t="inlineStr"/>
-      <c r="BR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
+      <c r="BS22" t="n">
+        <v>0</v>
+      </c>
       <c r="BT22" t="inlineStr"/>
-      <c r="BU22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU22" t="inlineStr"/>
       <c r="BV22" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW22" t="n">
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5559,12 +5585,12 @@
       </c>
       <c r="AP23" t="inlineStr">
         <is>
+          <t>Product Set Outdoor</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
           <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="AQ23" t="inlineStr">
-        <is>
-          <t>Product Set Outdoor</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr"/>
@@ -5603,28 +5629,29 @@
         </is>
       </c>
       <c r="BO23" t="inlineStr"/>
-      <c r="BP23" t="inlineStr">
+      <c r="BP23" t="inlineStr"/>
+      <c r="BQ23" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ23" t="inlineStr"/>
-      <c r="BR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
       <c r="BT23" t="inlineStr"/>
-      <c r="BU23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU23" t="inlineStr"/>
       <c r="BV23" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW23" t="n">
+      <c r="BW23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5778,12 +5805,12 @@
       </c>
       <c r="AP24" t="inlineStr">
         <is>
+          <t>Product Set Outdoor</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
           <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="AQ24" t="inlineStr">
-        <is>
-          <t>Product Set Outdoor</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr"/>
@@ -5822,28 +5849,29 @@
         </is>
       </c>
       <c r="BO24" t="inlineStr"/>
-      <c r="BP24" t="inlineStr">
+      <c r="BP24" t="inlineStr"/>
+      <c r="BQ24" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ24" t="inlineStr"/>
-      <c r="BR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
       <c r="BT24" t="inlineStr"/>
-      <c r="BU24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU24" t="inlineStr"/>
       <c r="BV24" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW24" t="n">
+      <c r="BW24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5997,12 +6025,12 @@
       </c>
       <c r="AP25" t="inlineStr">
         <is>
+          <t>Product Set Outdoor</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
           <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="AQ25" t="inlineStr">
-        <is>
-          <t>Product Set Outdoor</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr"/>
@@ -6041,28 +6069,29 @@
         </is>
       </c>
       <c r="BO25" t="inlineStr"/>
-      <c r="BP25" t="inlineStr">
+      <c r="BP25" t="inlineStr"/>
+      <c r="BQ25" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ25" t="inlineStr"/>
-      <c r="BR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
       <c r="BT25" t="inlineStr"/>
-      <c r="BU25" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU25" t="inlineStr"/>
       <c r="BV25" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW25" t="n">
+      <c r="BW25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6216,12 +6245,12 @@
       </c>
       <c r="AP26" t="inlineStr">
         <is>
+          <t>Product Set Outdoor</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
           <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="AQ26" t="inlineStr">
-        <is>
-          <t>Product Set Outdoor</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr"/>
@@ -6260,28 +6289,29 @@
         </is>
       </c>
       <c r="BO26" t="inlineStr"/>
-      <c r="BP26" t="inlineStr">
+      <c r="BP26" t="inlineStr"/>
+      <c r="BQ26" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ26" t="inlineStr"/>
-      <c r="BR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
+      <c r="BS26" t="n">
+        <v>0</v>
+      </c>
       <c r="BT26" t="inlineStr"/>
-      <c r="BU26" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU26" t="inlineStr"/>
       <c r="BV26" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW26" t="n">
+      <c r="BW26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6435,12 +6465,12 @@
       </c>
       <c r="AP27" t="inlineStr">
         <is>
+          <t>Product Set Outdoor</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
           <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="AQ27" t="inlineStr">
-        <is>
-          <t>Product Set Outdoor</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr"/>
@@ -6479,28 +6509,29 @@
         </is>
       </c>
       <c r="BO27" t="inlineStr"/>
-      <c r="BP27" t="inlineStr">
+      <c r="BP27" t="inlineStr"/>
+      <c r="BQ27" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ27" t="inlineStr"/>
-      <c r="BR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
+      <c r="BS27" t="n">
+        <v>0</v>
+      </c>
       <c r="BT27" t="inlineStr"/>
-      <c r="BU27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU27" t="inlineStr"/>
       <c r="BV27" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW27" t="n">
+      <c r="BW27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6654,12 +6685,12 @@
       </c>
       <c r="AP28" t="inlineStr">
         <is>
+          <t>Product Set Outdoor</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
           <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="AQ28" t="inlineStr">
-        <is>
-          <t>Product Set Outdoor</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr"/>
@@ -6698,28 +6729,29 @@
         </is>
       </c>
       <c r="BO28" t="inlineStr"/>
-      <c r="BP28" t="inlineStr">
+      <c r="BP28" t="inlineStr"/>
+      <c r="BQ28" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ28" t="inlineStr"/>
-      <c r="BR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
+      <c r="BS28" t="n">
+        <v>0</v>
+      </c>
       <c r="BT28" t="inlineStr"/>
-      <c r="BU28" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU28" t="inlineStr"/>
       <c r="BV28" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW28" t="n">
+      <c r="BW28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6873,12 +6905,12 @@
       </c>
       <c r="AP29" t="inlineStr">
         <is>
+          <t>Product Set Outdoor</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
           <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="AQ29" t="inlineStr">
-        <is>
-          <t>Product Set Outdoor</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr"/>
@@ -6917,28 +6949,29 @@
         </is>
       </c>
       <c r="BO29" t="inlineStr"/>
-      <c r="BP29" t="inlineStr">
+      <c r="BP29" t="inlineStr"/>
+      <c r="BQ29" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ29" t="inlineStr"/>
-      <c r="BR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
+      <c r="BS29" t="n">
+        <v>0</v>
+      </c>
       <c r="BT29" t="inlineStr"/>
-      <c r="BU29" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU29" t="inlineStr"/>
       <c r="BV29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW29" t="n">
+      <c r="BW29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7092,12 +7125,12 @@
       </c>
       <c r="AP30" t="inlineStr">
         <is>
+          <t>Product Set Outdoor</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
           <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="AQ30" t="inlineStr">
-        <is>
-          <t>Product Set Outdoor</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr"/>
@@ -7136,28 +7169,29 @@
         </is>
       </c>
       <c r="BO30" t="inlineStr"/>
-      <c r="BP30" t="inlineStr">
+      <c r="BP30" t="inlineStr"/>
+      <c r="BQ30" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ30" t="inlineStr"/>
-      <c r="BR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
+      <c r="BS30" t="n">
+        <v>0</v>
+      </c>
       <c r="BT30" t="inlineStr"/>
-      <c r="BU30" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU30" t="inlineStr"/>
       <c r="BV30" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW30" t="n">
+      <c r="BW30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7311,12 +7345,12 @@
       </c>
       <c r="AP31" t="inlineStr">
         <is>
+          <t>Product Set Outdoor</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
           <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="AQ31" t="inlineStr">
-        <is>
-          <t>Product Set Outdoor</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr"/>
@@ -7355,28 +7389,29 @@
         </is>
       </c>
       <c r="BO31" t="inlineStr"/>
-      <c r="BP31" t="inlineStr">
+      <c r="BP31" t="inlineStr"/>
+      <c r="BQ31" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ31" t="inlineStr"/>
-      <c r="BR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
+      <c r="BS31" t="n">
+        <v>0</v>
+      </c>
       <c r="BT31" t="inlineStr"/>
-      <c r="BU31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU31" t="inlineStr"/>
       <c r="BV31" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW31" t="n">
+      <c r="BW31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7530,12 +7565,12 @@
       </c>
       <c r="AP32" t="inlineStr">
         <is>
+          <t>Product Set Outdoor</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
           <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="AQ32" t="inlineStr">
-        <is>
-          <t>Product Set Outdoor</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr"/>
@@ -7574,28 +7609,29 @@
         </is>
       </c>
       <c r="BO32" t="inlineStr"/>
-      <c r="BP32" t="inlineStr">
+      <c r="BP32" t="inlineStr"/>
+      <c r="BQ32" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ32" t="inlineStr"/>
-      <c r="BR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
+      <c r="BS32" t="n">
+        <v>0</v>
+      </c>
       <c r="BT32" t="inlineStr"/>
-      <c r="BU32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU32" t="inlineStr"/>
       <c r="BV32" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW32" t="n">
+      <c r="BW32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7749,12 +7785,12 @@
       </c>
       <c r="AP33" t="inlineStr">
         <is>
+          <t>Product Set Wall Items</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
           <t>Wall Items</t>
-        </is>
-      </c>
-      <c r="AQ33" t="inlineStr">
-        <is>
-          <t>Product Set Wall Items</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr"/>
@@ -7793,28 +7829,29 @@
         </is>
       </c>
       <c r="BO33" t="inlineStr"/>
-      <c r="BP33" t="inlineStr">
+      <c r="BP33" t="inlineStr"/>
+      <c r="BQ33" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ33" t="inlineStr"/>
-      <c r="BR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
+      <c r="BS33" t="n">
+        <v>0</v>
+      </c>
       <c r="BT33" t="inlineStr"/>
-      <c r="BU33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU33" t="inlineStr"/>
       <c r="BV33" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW33" t="n">
+      <c r="BW33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7968,12 +8005,12 @@
       </c>
       <c r="AP34" t="inlineStr">
         <is>
+          <t>Product Set Wall Items</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
           <t>Wall Items</t>
-        </is>
-      </c>
-      <c r="AQ34" t="inlineStr">
-        <is>
-          <t>Product Set Wall Items</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr"/>
@@ -8012,28 +8049,29 @@
         </is>
       </c>
       <c r="BO34" t="inlineStr"/>
-      <c r="BP34" t="inlineStr">
+      <c r="BP34" t="inlineStr"/>
+      <c r="BQ34" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ34" t="inlineStr"/>
-      <c r="BR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
+      <c r="BS34" t="n">
+        <v>0</v>
+      </c>
       <c r="BT34" t="inlineStr"/>
-      <c r="BU34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU34" t="inlineStr"/>
       <c r="BV34" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW34" t="n">
+      <c r="BW34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8187,12 +8225,12 @@
       </c>
       <c r="AP35" t="inlineStr">
         <is>
+          <t>Product Set Wall Items</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
           <t>Wall Items</t>
-        </is>
-      </c>
-      <c r="AQ35" t="inlineStr">
-        <is>
-          <t>Product Set Wall Items</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr"/>
@@ -8231,28 +8269,29 @@
         </is>
       </c>
       <c r="BO35" t="inlineStr"/>
-      <c r="BP35" t="inlineStr">
+      <c r="BP35" t="inlineStr"/>
+      <c r="BQ35" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ35" t="inlineStr"/>
-      <c r="BR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
+      <c r="BS35" t="n">
+        <v>0</v>
+      </c>
       <c r="BT35" t="inlineStr"/>
-      <c r="BU35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU35" t="inlineStr"/>
       <c r="BV35" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW35" t="n">
+      <c r="BW35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8406,12 +8445,12 @@
       </c>
       <c r="AP36" t="inlineStr">
         <is>
+          <t>Product Set Wall Items</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
           <t>Wall Items</t>
-        </is>
-      </c>
-      <c r="AQ36" t="inlineStr">
-        <is>
-          <t>Product Set Wall Items</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr"/>
@@ -8450,28 +8489,29 @@
         </is>
       </c>
       <c r="BO36" t="inlineStr"/>
-      <c r="BP36" t="inlineStr">
+      <c r="BP36" t="inlineStr"/>
+      <c r="BQ36" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ36" t="inlineStr"/>
-      <c r="BR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
+      <c r="BS36" t="n">
+        <v>0</v>
+      </c>
       <c r="BT36" t="inlineStr"/>
-      <c r="BU36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU36" t="inlineStr"/>
       <c r="BV36" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW36" t="n">
+      <c r="BW36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8625,12 +8665,12 @@
       </c>
       <c r="AP37" t="inlineStr">
         <is>
+          <t>Product Set Wall Items</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
           <t>Wall Items</t>
-        </is>
-      </c>
-      <c r="AQ37" t="inlineStr">
-        <is>
-          <t>Product Set Wall Items</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr"/>
@@ -8669,28 +8709,29 @@
         </is>
       </c>
       <c r="BO37" t="inlineStr"/>
-      <c r="BP37" t="inlineStr">
+      <c r="BP37" t="inlineStr"/>
+      <c r="BQ37" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ37" t="inlineStr"/>
-      <c r="BR37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
+      <c r="BS37" t="n">
+        <v>0</v>
+      </c>
       <c r="BT37" t="inlineStr"/>
-      <c r="BU37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU37" t="inlineStr"/>
       <c r="BV37" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW37" t="n">
+      <c r="BW37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8844,12 +8885,12 @@
       </c>
       <c r="AP38" t="inlineStr">
         <is>
+          <t>Product Set Wall Items</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
           <t>Wall Items</t>
-        </is>
-      </c>
-      <c r="AQ38" t="inlineStr">
-        <is>
-          <t>Product Set Wall Items</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr"/>
@@ -8888,28 +8929,29 @@
         </is>
       </c>
       <c r="BO38" t="inlineStr"/>
-      <c r="BP38" t="inlineStr">
+      <c r="BP38" t="inlineStr"/>
+      <c r="BQ38" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ38" t="inlineStr"/>
-      <c r="BR38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
+      <c r="BS38" t="n">
+        <v>0</v>
+      </c>
       <c r="BT38" t="inlineStr"/>
-      <c r="BU38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU38" t="inlineStr"/>
       <c r="BV38" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW38" t="n">
+      <c r="BW38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9063,12 +9105,12 @@
       </c>
       <c r="AP39" t="inlineStr">
         <is>
+          <t>Product Set Wall Items</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
           <t>Wall Items</t>
-        </is>
-      </c>
-      <c r="AQ39" t="inlineStr">
-        <is>
-          <t>Product Set Wall Items</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr"/>
@@ -9107,28 +9149,29 @@
         </is>
       </c>
       <c r="BO39" t="inlineStr"/>
-      <c r="BP39" t="inlineStr">
+      <c r="BP39" t="inlineStr"/>
+      <c r="BQ39" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ39" t="inlineStr"/>
-      <c r="BR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
+      <c r="BS39" t="n">
+        <v>0</v>
+      </c>
       <c r="BT39" t="inlineStr"/>
-      <c r="BU39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU39" t="inlineStr"/>
       <c r="BV39" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW39" t="n">
+      <c r="BW39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9282,12 +9325,12 @@
       </c>
       <c r="AP40" t="inlineStr">
         <is>
+          <t>Product Set Wall Items</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
           <t>Wall Items</t>
-        </is>
-      </c>
-      <c r="AQ40" t="inlineStr">
-        <is>
-          <t>Product Set Wall Items</t>
         </is>
       </c>
       <c r="AR40" t="inlineStr"/>
@@ -9326,28 +9369,29 @@
         </is>
       </c>
       <c r="BO40" t="inlineStr"/>
-      <c r="BP40" t="inlineStr">
+      <c r="BP40" t="inlineStr"/>
+      <c r="BQ40" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ40" t="inlineStr"/>
-      <c r="BR40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
+      <c r="BS40" t="n">
+        <v>0</v>
+      </c>
       <c r="BT40" t="inlineStr"/>
-      <c r="BU40" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU40" t="inlineStr"/>
       <c r="BV40" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW40" t="n">
+      <c r="BW40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9501,12 +9545,12 @@
       </c>
       <c r="AP41" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ41" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR41" t="inlineStr"/>
@@ -9545,28 +9589,29 @@
         </is>
       </c>
       <c r="BO41" t="inlineStr"/>
-      <c r="BP41" t="inlineStr">
+      <c r="BP41" t="inlineStr"/>
+      <c r="BQ41" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ41" t="inlineStr"/>
-      <c r="BR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
+      <c r="BS41" t="n">
+        <v>0</v>
+      </c>
       <c r="BT41" t="inlineStr"/>
-      <c r="BU41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU41" t="inlineStr"/>
       <c r="BV41" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW41" t="n">
+      <c r="BW41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9720,12 +9765,12 @@
       </c>
       <c r="AP42" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ42" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr"/>
@@ -9764,28 +9809,29 @@
         </is>
       </c>
       <c r="BO42" t="inlineStr"/>
-      <c r="BP42" t="inlineStr">
+      <c r="BP42" t="inlineStr"/>
+      <c r="BQ42" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ42" t="inlineStr"/>
-      <c r="BR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
+      <c r="BS42" t="n">
+        <v>0</v>
+      </c>
       <c r="BT42" t="inlineStr"/>
-      <c r="BU42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU42" t="inlineStr"/>
       <c r="BV42" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW42" t="n">
+      <c r="BW42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9939,12 +9985,12 @@
       </c>
       <c r="AP43" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ43" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR43" t="inlineStr"/>
@@ -9983,28 +10029,29 @@
         </is>
       </c>
       <c r="BO43" t="inlineStr"/>
-      <c r="BP43" t="inlineStr">
+      <c r="BP43" t="inlineStr"/>
+      <c r="BQ43" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ43" t="inlineStr"/>
-      <c r="BR43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
+      <c r="BS43" t="n">
+        <v>0</v>
+      </c>
       <c r="BT43" t="inlineStr"/>
-      <c r="BU43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU43" t="inlineStr"/>
       <c r="BV43" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW43" t="n">
+      <c r="BW43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10158,12 +10205,12 @@
       </c>
       <c r="AP44" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ44" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR44" t="inlineStr"/>
@@ -10202,28 +10249,29 @@
         </is>
       </c>
       <c r="BO44" t="inlineStr"/>
-      <c r="BP44" t="inlineStr">
+      <c r="BP44" t="inlineStr"/>
+      <c r="BQ44" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ44" t="inlineStr"/>
-      <c r="BR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
+      <c r="BS44" t="n">
+        <v>0</v>
+      </c>
       <c r="BT44" t="inlineStr"/>
-      <c r="BU44" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU44" t="inlineStr"/>
       <c r="BV44" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW44" t="n">
+      <c r="BW44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10377,12 +10425,12 @@
       </c>
       <c r="AP45" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ45" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR45" t="inlineStr"/>
@@ -10421,28 +10469,29 @@
         </is>
       </c>
       <c r="BO45" t="inlineStr"/>
-      <c r="BP45" t="inlineStr">
+      <c r="BP45" t="inlineStr"/>
+      <c r="BQ45" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ45" t="inlineStr"/>
-      <c r="BR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
+      <c r="BS45" t="n">
+        <v>0</v>
+      </c>
       <c r="BT45" t="inlineStr"/>
-      <c r="BU45" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU45" t="inlineStr"/>
       <c r="BV45" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW45" t="n">
+      <c r="BW45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10596,12 +10645,12 @@
       </c>
       <c r="AP46" t="inlineStr">
         <is>
+          <t>Product Set Accessories</t>
+        </is>
+      </c>
+      <c r="AQ46" t="inlineStr">
+        <is>
           <t>Accessories</t>
-        </is>
-      </c>
-      <c r="AQ46" t="inlineStr">
-        <is>
-          <t>Product Set Accessories</t>
         </is>
       </c>
       <c r="AR46" t="inlineStr"/>
@@ -10640,28 +10689,29 @@
         </is>
       </c>
       <c r="BO46" t="inlineStr"/>
-      <c r="BP46" t="inlineStr">
+      <c r="BP46" t="inlineStr"/>
+      <c r="BQ46" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ46" t="inlineStr"/>
-      <c r="BR46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
+      <c r="BS46" t="n">
+        <v>0</v>
+      </c>
       <c r="BT46" t="inlineStr"/>
-      <c r="BU46" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU46" t="inlineStr"/>
       <c r="BV46" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW46" t="n">
+      <c r="BW46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10815,12 +10865,12 @@
       </c>
       <c r="AP47" t="inlineStr">
         <is>
+          <t>Product Set Rooms</t>
+        </is>
+      </c>
+      <c r="AQ47" t="inlineStr">
+        <is>
           <t>Rooms</t>
-        </is>
-      </c>
-      <c r="AQ47" t="inlineStr">
-        <is>
-          <t>Product Set Rooms</t>
         </is>
       </c>
       <c r="AR47" t="inlineStr"/>
@@ -10859,28 +10909,29 @@
         </is>
       </c>
       <c r="BO47" t="inlineStr"/>
-      <c r="BP47" t="inlineStr">
+      <c r="BP47" t="inlineStr"/>
+      <c r="BQ47" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ47" t="inlineStr"/>
-      <c r="BR47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
+      <c r="BS47" t="n">
+        <v>0</v>
+      </c>
       <c r="BT47" t="inlineStr"/>
-      <c r="BU47" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU47" t="inlineStr"/>
       <c r="BV47" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW47" t="n">
+      <c r="BW47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11034,12 +11085,12 @@
       </c>
       <c r="AP48" t="inlineStr">
         <is>
+          <t>Product Set Lounge</t>
+        </is>
+      </c>
+      <c r="AQ48" t="inlineStr">
+        <is>
           <t>Lounge</t>
-        </is>
-      </c>
-      <c r="AQ48" t="inlineStr">
-        <is>
-          <t>Product Set Lounge</t>
         </is>
       </c>
       <c r="AR48" t="inlineStr"/>
@@ -11078,28 +11129,29 @@
         </is>
       </c>
       <c r="BO48" t="inlineStr"/>
-      <c r="BP48" t="inlineStr">
+      <c r="BP48" t="inlineStr"/>
+      <c r="BQ48" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ48" t="inlineStr"/>
-      <c r="BR48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
+      <c r="BS48" t="n">
+        <v>0</v>
+      </c>
       <c r="BT48" t="inlineStr"/>
-      <c r="BU48" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU48" t="inlineStr"/>
       <c r="BV48" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW48" t="n">
+      <c r="BW48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11253,12 +11305,12 @@
       </c>
       <c r="AP49" t="inlineStr">
         <is>
+          <t>Product Set Lounge</t>
+        </is>
+      </c>
+      <c r="AQ49" t="inlineStr">
+        <is>
           <t>Lounge</t>
-        </is>
-      </c>
-      <c r="AQ49" t="inlineStr">
-        <is>
-          <t>Product Set Lounge</t>
         </is>
       </c>
       <c r="AR49" t="inlineStr"/>
@@ -11297,28 +11349,29 @@
         </is>
       </c>
       <c r="BO49" t="inlineStr"/>
-      <c r="BP49" t="inlineStr">
+      <c r="BP49" t="inlineStr"/>
+      <c r="BQ49" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ49" t="inlineStr"/>
-      <c r="BR49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
+      <c r="BS49" t="n">
+        <v>0</v>
+      </c>
       <c r="BT49" t="inlineStr"/>
-      <c r="BU49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU49" t="inlineStr"/>
       <c r="BV49" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW49" t="n">
+      <c r="BW49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11472,12 +11525,12 @@
       </c>
       <c r="AP50" t="inlineStr">
         <is>
+          <t>Product Set Furniture</t>
+        </is>
+      </c>
+      <c r="AQ50" t="inlineStr">
+        <is>
           <t>Furniture</t>
-        </is>
-      </c>
-      <c r="AQ50" t="inlineStr">
-        <is>
-          <t>Product Set Furniture</t>
         </is>
       </c>
       <c r="AR50" t="inlineStr"/>
@@ -11516,28 +11569,29 @@
         </is>
       </c>
       <c r="BO50" t="inlineStr"/>
-      <c r="BP50" t="inlineStr">
+      <c r="BP50" t="inlineStr"/>
+      <c r="BQ50" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ50" t="inlineStr"/>
-      <c r="BR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
+      <c r="BS50" t="n">
+        <v>0</v>
+      </c>
       <c r="BT50" t="inlineStr"/>
-      <c r="BU50" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU50" t="inlineStr"/>
       <c r="BV50" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW50" t="n">
+      <c r="BW50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11691,12 +11745,12 @@
       </c>
       <c r="AP51" t="inlineStr">
         <is>
+          <t>Product Set Lounge</t>
+        </is>
+      </c>
+      <c r="AQ51" t="inlineStr">
+        <is>
           <t>Lounge</t>
-        </is>
-      </c>
-      <c r="AQ51" t="inlineStr">
-        <is>
-          <t>Product Set Lounge</t>
         </is>
       </c>
       <c r="AR51" t="inlineStr"/>
@@ -11735,28 +11789,29 @@
         </is>
       </c>
       <c r="BO51" t="inlineStr"/>
-      <c r="BP51" t="inlineStr">
+      <c r="BP51" t="inlineStr"/>
+      <c r="BQ51" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ51" t="inlineStr"/>
-      <c r="BR51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
+      <c r="BS51" t="n">
+        <v>0</v>
+      </c>
       <c r="BT51" t="inlineStr"/>
-      <c r="BU51" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU51" t="inlineStr"/>
       <c r="BV51" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW51" t="n">
+      <c r="BW51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11910,12 +11965,12 @@
       </c>
       <c r="AP52" t="inlineStr">
         <is>
+          <t>Product Set Furniture</t>
+        </is>
+      </c>
+      <c r="AQ52" t="inlineStr">
+        <is>
           <t>Furniture</t>
-        </is>
-      </c>
-      <c r="AQ52" t="inlineStr">
-        <is>
-          <t>Product Set Furniture</t>
         </is>
       </c>
       <c r="AR52" t="inlineStr"/>
@@ -11954,28 +12009,29 @@
         </is>
       </c>
       <c r="BO52" t="inlineStr"/>
-      <c r="BP52" t="inlineStr">
+      <c r="BP52" t="inlineStr"/>
+      <c r="BQ52" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ52" t="inlineStr"/>
-      <c r="BR52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
+      <c r="BS52" t="n">
+        <v>0</v>
+      </c>
       <c r="BT52" t="inlineStr"/>
-      <c r="BU52" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU52" t="inlineStr"/>
       <c r="BV52" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW52" t="n">
+      <c r="BW52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12129,12 +12185,12 @@
       </c>
       <c r="AP53" t="inlineStr">
         <is>
+          <t>Product Set Furniture</t>
+        </is>
+      </c>
+      <c r="AQ53" t="inlineStr">
+        <is>
           <t>Furniture</t>
-        </is>
-      </c>
-      <c r="AQ53" t="inlineStr">
-        <is>
-          <t>Product Set Furniture</t>
         </is>
       </c>
       <c r="AR53" t="inlineStr"/>
@@ -12173,28 +12229,29 @@
         </is>
       </c>
       <c r="BO53" t="inlineStr"/>
-      <c r="BP53" t="inlineStr">
+      <c r="BP53" t="inlineStr"/>
+      <c r="BQ53" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ53" t="inlineStr"/>
-      <c r="BR53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
+      <c r="BS53" t="n">
+        <v>0</v>
+      </c>
       <c r="BT53" t="inlineStr"/>
-      <c r="BU53" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU53" t="inlineStr"/>
       <c r="BV53" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW53" t="n">
+      <c r="BW53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12348,12 +12405,12 @@
       </c>
       <c r="AP54" t="inlineStr">
         <is>
+          <t>Product Set Lounge</t>
+        </is>
+      </c>
+      <c r="AQ54" t="inlineStr">
+        <is>
           <t>Lounge</t>
-        </is>
-      </c>
-      <c r="AQ54" t="inlineStr">
-        <is>
-          <t>Product Set Lounge</t>
         </is>
       </c>
       <c r="AR54" t="inlineStr"/>
@@ -12392,28 +12449,29 @@
         </is>
       </c>
       <c r="BO54" t="inlineStr"/>
-      <c r="BP54" t="inlineStr">
+      <c r="BP54" t="inlineStr"/>
+      <c r="BQ54" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="BQ54" t="inlineStr"/>
-      <c r="BR54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
+      <c r="BS54" t="n">
+        <v>0</v>
+      </c>
       <c r="BT54" t="inlineStr"/>
-      <c r="BU54" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="BU54" t="inlineStr"/>
       <c r="BV54" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BW54" t="n">
+      <c r="BW54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BX54" t="n">
         <v>1</v>
       </c>
     </row>
